--- a/sheets/education.xlsx
+++ b/sheets/education.xlsx
@@ -213,7 +213,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -318,10 +318,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -347,6 +347,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>5188</v>
+      </c>
       <c r="B2" s="0" t="s">
         <v>19</v>
       </c>
